--- a/municipal/სასტუმროები/სტუმრები/იმერეთი/ქ. ქუთაისი.xlsx
+++ b/municipal/სასტუმროები/სტუმრები/იმერეთი/ქ. ქუთაისი.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\4 სტუმრები\იმერეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სასტუმროები\სტუმრები\იმერეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="16">
   <si>
     <t>(კაცი)</t>
   </si>
@@ -68,7 +68,52 @@
     <t xml:space="preserve">                       სხვა ქვეყნებიდან</t>
   </si>
   <si>
-    <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით ქ. ქუთაისის მუნიციპალიტეტი</t>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>საქართველოს კანონმდებლობის შესაბამისად დარეგისტრირებული იურიდიული პირები და ინდივიდუალური მეწარმეები(ადგილობრივი ერთეულებისა და ფილიალების ჩათვლით).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით ქ. ქუთაისის მუნიციპალიტეტში</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -76,9 +121,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#\ ##0"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +205,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -175,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -236,13 +295,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -312,14 +380,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -327,17 +404,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -621,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI87"/>
+  <dimension ref="A1:BI88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -639,7 +710,7 @@
   <sheetData>
     <row r="1" spans="1:61" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -706,66 +777,66 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
-      <c r="AW2" s="32"/>
-      <c r="AX2" s="32"/>
-      <c r="AY2" s="32"/>
-      <c r="AZ2" s="32"/>
-      <c r="BA2" s="32"/>
-      <c r="BB2" s="32"/>
-      <c r="BC2" s="32"/>
-      <c r="BD2" s="32"/>
-      <c r="BE2" s="32"/>
-      <c r="BF2" s="32"/>
-      <c r="BG2" s="32"/>
-      <c r="BH2" s="32"/>
-      <c r="BI2" s="32"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="36"/>
+      <c r="BD2" s="36"/>
+      <c r="BE2" s="36"/>
+      <c r="BF2" s="36"/>
+      <c r="BG2" s="36"/>
+      <c r="BH2" s="36"/>
+      <c r="BI2" s="36"/>
     </row>
     <row r="3" spans="1:61" s="24" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -843,14 +914,14 @@
       <c r="BI3" s="8"/>
     </row>
     <row r="4" spans="1:61" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33">
+      <c r="A4" s="39">
         <v>2010</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -911,19 +982,19 @@
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="31">
         <v>18732</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="31">
         <v>1399</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="31">
         <v>15170</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="31">
         <v>4</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="31">
         <v>2159</v>
       </c>
       <c r="G5" s="11"/>
@@ -986,19 +1057,19 @@
       <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="32">
         <v>11686</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="32">
         <v>488</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="32">
         <v>10694</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="32">
         <v>4</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="32">
         <v>500</v>
       </c>
       <c r="G6" s="13"/>
@@ -1061,19 +1132,19 @@
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="32">
         <v>7046</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="32">
         <v>911</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="32">
         <v>4476</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="37">
+      <c r="E7" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="32">
         <v>1659</v>
       </c>
       <c r="G7" s="13"/>
@@ -1136,19 +1207,19 @@
       <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="32">
         <v>2386</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="32">
         <v>488</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="32">
         <v>1047</v>
       </c>
-      <c r="E8" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="37">
+      <c r="E8" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="32">
         <v>851</v>
       </c>
       <c r="G8" s="13"/>
@@ -1211,19 +1282,19 @@
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="32">
         <v>1519</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="32">
         <v>4</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="32">
         <v>990</v>
       </c>
-      <c r="E9" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="37">
+      <c r="E9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="32">
         <v>525</v>
       </c>
       <c r="G9" s="13"/>
@@ -1286,19 +1357,19 @@
       <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="33">
         <v>3141</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="33">
         <v>419</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="33">
         <v>2439</v>
       </c>
-      <c r="E10" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="38">
+      <c r="E10" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="33">
         <v>283</v>
       </c>
       <c r="G10" s="13"/>
@@ -1358,14 +1429,14 @@
       <c r="BI10" s="13"/>
     </row>
     <row r="11" spans="1:61" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31">
+      <c r="A11" s="35">
         <v>2011</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -1426,19 +1497,19 @@
       <c r="A12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="31">
         <v>34744</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="31">
         <v>14002</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="31">
         <v>8100</v>
       </c>
-      <c r="E12" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="36">
+      <c r="E12" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="31">
         <v>12642</v>
       </c>
     </row>
@@ -1446,19 +1517,19 @@
       <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="32">
         <v>21465</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="32">
         <v>9662</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="32">
         <v>5406</v>
       </c>
-      <c r="E13" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="37">
+      <c r="E13" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="32">
         <v>6397</v>
       </c>
     </row>
@@ -1466,19 +1537,19 @@
       <c r="A14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="32">
         <v>13279</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="32">
         <v>4340</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="32">
         <v>2694</v>
       </c>
-      <c r="E14" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="37">
+      <c r="E14" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="32">
         <v>6245</v>
       </c>
     </row>
@@ -1486,19 +1557,19 @@
       <c r="A15" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="32">
         <v>4753</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="32">
         <v>128</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="32">
         <v>1473</v>
       </c>
-      <c r="E15" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="37">
+      <c r="E15" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="32">
         <v>3152</v>
       </c>
     </row>
@@ -1506,19 +1577,19 @@
       <c r="A16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="32">
         <v>1264</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="32">
         <v>41</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="32">
         <v>95</v>
       </c>
-      <c r="E16" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="37">
+      <c r="E16" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="32">
         <v>1128</v>
       </c>
     </row>
@@ -1526,31 +1597,31 @@
       <c r="A17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B17" s="33">
         <v>7262</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="33">
         <v>4171</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="33">
         <v>1126</v>
       </c>
-      <c r="E17" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="38">
+      <c r="E17" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="33">
         <v>1965</v>
       </c>
     </row>
     <row r="18" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31">
+      <c r="A18" s="35">
         <v>2012</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -1611,19 +1682,19 @@
       <c r="A19" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="31">
         <v>56536</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="31">
         <v>37662</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="31">
         <v>16445</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="31">
         <v>237</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="31">
         <v>2192</v>
       </c>
     </row>
@@ -1631,19 +1702,19 @@
       <c r="A20" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20" s="32">
         <v>41379</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="32">
         <v>25288</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="32">
         <v>14272</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="32">
         <v>237</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="32">
         <v>1582</v>
       </c>
     </row>
@@ -1651,19 +1722,19 @@
       <c r="A21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="32">
         <v>15157</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="32">
         <v>12374</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="32">
         <v>2173</v>
       </c>
-      <c r="E21" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="37">
+      <c r="E21" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="32">
         <v>610</v>
       </c>
     </row>
@@ -1671,19 +1742,19 @@
       <c r="A22" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="32">
         <v>3560</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="32">
         <v>2423</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="32">
         <v>975</v>
       </c>
-      <c r="E22" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="37">
+      <c r="E22" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="32">
         <v>162</v>
       </c>
     </row>
@@ -1691,19 +1762,19 @@
       <c r="A23" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="32">
         <v>2672</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="32">
         <v>2100</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="32">
         <v>247</v>
       </c>
-      <c r="E23" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="37">
+      <c r="E23" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="32">
         <v>325</v>
       </c>
     </row>
@@ -1711,31 +1782,31 @@
       <c r="A24" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="38">
+      <c r="B24" s="33">
         <v>8925</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="33">
         <v>7851</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="33">
         <v>951</v>
       </c>
-      <c r="E24" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="38">
+      <c r="E24" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="33">
         <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="31">
+      <c r="A25" s="35">
         <v>2013</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
@@ -1796,19 +1867,19 @@
       <c r="A26" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="31">
         <v>42112</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="31">
         <v>26241</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="31">
         <v>14359</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="31">
         <v>29</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="31">
         <v>1483</v>
       </c>
     </row>
@@ -1816,19 +1887,19 @@
       <c r="A27" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="37">
+      <c r="B27" s="32">
         <v>22892</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="32">
         <v>9606</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D27" s="32">
         <v>12971</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="32">
         <v>29</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="32">
         <v>286</v>
       </c>
     </row>
@@ -1836,19 +1907,19 @@
       <c r="A28" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="37">
+      <c r="B28" s="32">
         <v>19220</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="32">
         <v>16635</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="32">
         <v>1388</v>
       </c>
-      <c r="E28" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="37">
+      <c r="E28" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="32">
         <v>1197</v>
       </c>
     </row>
@@ -1856,19 +1927,19 @@
       <c r="A29" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="37">
+      <c r="B29" s="32">
         <v>8059</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="32">
         <v>7745</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D29" s="32">
         <v>307</v>
       </c>
-      <c r="E29" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="37">
+      <c r="E29" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="32">
         <v>7</v>
       </c>
     </row>
@@ -1876,19 +1947,19 @@
       <c r="A30" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="37">
+      <c r="B30" s="32">
         <v>7927</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="32">
         <v>7315</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="32">
         <v>352</v>
       </c>
-      <c r="E30" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="37">
+      <c r="E30" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="32">
         <v>260</v>
       </c>
     </row>
@@ -1896,31 +1967,31 @@
       <c r="A31" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="38">
+      <c r="B31" s="33">
         <v>3234</v>
       </c>
-      <c r="C31" s="38">
+      <c r="C31" s="33">
         <v>1575</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="33">
         <v>729</v>
       </c>
-      <c r="E31" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="38">
+      <c r="E31" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="33">
         <v>930</v>
       </c>
     </row>
     <row r="32" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="31">
+      <c r="A32" s="35">
         <v>2014</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
@@ -1981,19 +2052,19 @@
       <c r="A33" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="36">
+      <c r="B33" s="31">
         <v>54896</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="31">
         <v>31789</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="31">
         <v>18241</v>
       </c>
-      <c r="E33" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="36">
+      <c r="E33" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="31">
         <v>4866</v>
       </c>
     </row>
@@ -2001,19 +2072,19 @@
       <c r="A34" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="37">
+      <c r="B34" s="32">
         <v>30010</v>
       </c>
-      <c r="C34" s="37">
+      <c r="C34" s="32">
         <v>8253</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="32">
         <v>17236</v>
       </c>
-      <c r="E34" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="37">
+      <c r="E34" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="32">
         <v>4521</v>
       </c>
     </row>
@@ -2021,19 +2092,19 @@
       <c r="A35" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="37">
+      <c r="B35" s="32">
         <v>24886</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="32">
         <v>23536</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="32">
         <v>1005</v>
       </c>
-      <c r="E35" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="37">
+      <c r="E35" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="32">
         <v>345</v>
       </c>
     </row>
@@ -2041,19 +2112,19 @@
       <c r="A36" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="37">
+      <c r="B36" s="32">
         <v>11023</v>
       </c>
-      <c r="C36" s="37">
+      <c r="C36" s="32">
         <v>10704</v>
       </c>
-      <c r="D36" s="37">
+      <c r="D36" s="32">
         <v>219</v>
       </c>
-      <c r="E36" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="37">
+      <c r="E36" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="32">
         <v>100</v>
       </c>
     </row>
@@ -2061,19 +2132,19 @@
       <c r="A37" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="37">
+      <c r="B37" s="32">
         <v>11358</v>
       </c>
-      <c r="C37" s="37">
+      <c r="C37" s="32">
         <v>10846</v>
       </c>
-      <c r="D37" s="37">
+      <c r="D37" s="32">
         <v>388</v>
       </c>
-      <c r="E37" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="37">
+      <c r="E37" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="32">
         <v>124</v>
       </c>
     </row>
@@ -2081,31 +2152,31 @@
       <c r="A38" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="38">
+      <c r="B38" s="33">
         <v>2505</v>
       </c>
-      <c r="C38" s="38">
+      <c r="C38" s="33">
         <v>1986</v>
       </c>
-      <c r="D38" s="38">
+      <c r="D38" s="33">
         <v>398</v>
       </c>
-      <c r="E38" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="38">
+      <c r="E38" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="33">
         <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="31">
+      <c r="A39" s="35">
         <v>2015</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
@@ -2166,19 +2237,19 @@
       <c r="A40" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="36">
+      <c r="B40" s="31">
         <v>75208</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="31">
         <v>40832</v>
       </c>
-      <c r="D40" s="36">
+      <c r="D40" s="31">
         <v>23797</v>
       </c>
-      <c r="E40" s="36">
+      <c r="E40" s="31">
         <v>4</v>
       </c>
-      <c r="F40" s="36">
+      <c r="F40" s="31">
         <v>10575</v>
       </c>
       <c r="G40" s="19"/>
@@ -2241,19 +2312,19 @@
       <c r="A41" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="37">
+      <c r="B41" s="32">
         <v>50435</v>
       </c>
-      <c r="C41" s="37">
+      <c r="C41" s="32">
         <v>18600</v>
       </c>
-      <c r="D41" s="37">
+      <c r="D41" s="32">
         <v>22309</v>
       </c>
-      <c r="E41" s="37">
+      <c r="E41" s="32">
         <v>2</v>
       </c>
-      <c r="F41" s="37">
+      <c r="F41" s="32">
         <v>9524</v>
       </c>
     </row>
@@ -2261,19 +2332,19 @@
       <c r="A42" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="37">
+      <c r="B42" s="32">
         <v>24773</v>
       </c>
-      <c r="C42" s="37">
+      <c r="C42" s="32">
         <v>22232</v>
       </c>
-      <c r="D42" s="37">
+      <c r="D42" s="32">
         <v>1488</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E42" s="31">
         <v>2</v>
       </c>
-      <c r="F42" s="37">
+      <c r="F42" s="32">
         <v>1051</v>
       </c>
     </row>
@@ -2281,19 +2352,19 @@
       <c r="A43" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="37">
+      <c r="B43" s="32">
         <v>13619</v>
       </c>
-      <c r="C43" s="37">
+      <c r="C43" s="32">
         <v>13009</v>
       </c>
-      <c r="D43" s="37">
+      <c r="D43" s="32">
         <v>303</v>
       </c>
-      <c r="E43" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="37">
+      <c r="E43" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="32">
         <v>307</v>
       </c>
     </row>
@@ -2301,19 +2372,19 @@
       <c r="A44" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="37">
+      <c r="B44" s="32">
         <v>7399</v>
       </c>
-      <c r="C44" s="37">
+      <c r="C44" s="32">
         <v>6538</v>
       </c>
-      <c r="D44" s="37">
+      <c r="D44" s="32">
         <v>527</v>
       </c>
-      <c r="E44" s="36">
+      <c r="E44" s="31">
         <v>2</v>
       </c>
-      <c r="F44" s="37">
+      <c r="F44" s="32">
         <v>332</v>
       </c>
     </row>
@@ -2321,31 +2392,31 @@
       <c r="A45" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="38">
+      <c r="B45" s="33">
         <v>3755</v>
       </c>
-      <c r="C45" s="38">
+      <c r="C45" s="33">
         <v>2685</v>
       </c>
-      <c r="D45" s="38">
+      <c r="D45" s="33">
         <v>658</v>
       </c>
-      <c r="E45" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="38">
+      <c r="E45" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="33">
         <v>412</v>
       </c>
     </row>
     <row r="46" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="31">
+      <c r="A46" s="35">
         <v>2016</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
@@ -2406,19 +2477,19 @@
       <c r="A47" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="36">
+      <c r="B47" s="31">
         <v>81246</v>
       </c>
-      <c r="C47" s="36">
+      <c r="C47" s="31">
         <v>50119</v>
       </c>
-      <c r="D47" s="36">
+      <c r="D47" s="31">
         <v>22577</v>
       </c>
-      <c r="E47" s="36">
+      <c r="E47" s="31">
         <v>79</v>
       </c>
-      <c r="F47" s="36">
+      <c r="F47" s="31">
         <v>8471</v>
       </c>
     </row>
@@ -2426,19 +2497,19 @@
       <c r="A48" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="37">
+      <c r="B48" s="32">
         <v>42911</v>
       </c>
-      <c r="C48" s="37">
+      <c r="C48" s="32">
         <v>15299</v>
       </c>
-      <c r="D48" s="37">
+      <c r="D48" s="32">
         <v>20732</v>
       </c>
-      <c r="E48" s="37">
+      <c r="E48" s="32">
         <v>39</v>
       </c>
-      <c r="F48" s="37">
+      <c r="F48" s="32">
         <v>6841</v>
       </c>
     </row>
@@ -2446,19 +2517,19 @@
       <c r="A49" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="37">
+      <c r="B49" s="32">
         <v>38335</v>
       </c>
-      <c r="C49" s="37">
+      <c r="C49" s="32">
         <v>34820</v>
       </c>
-      <c r="D49" s="37">
+      <c r="D49" s="32">
         <v>1845</v>
       </c>
-      <c r="E49" s="36">
+      <c r="E49" s="31">
         <v>40</v>
       </c>
-      <c r="F49" s="37">
+      <c r="F49" s="32">
         <v>1630</v>
       </c>
     </row>
@@ -2466,19 +2537,19 @@
       <c r="A50" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="37">
+      <c r="B50" s="32">
         <v>19857</v>
       </c>
-      <c r="C50" s="37">
+      <c r="C50" s="32">
         <v>18826</v>
       </c>
-      <c r="D50" s="37">
+      <c r="D50" s="32">
         <v>523</v>
       </c>
-      <c r="E50" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="37">
+      <c r="E50" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="32">
         <v>508</v>
       </c>
     </row>
@@ -2486,19 +2557,19 @@
       <c r="A51" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="37">
+      <c r="B51" s="32">
         <v>13899</v>
       </c>
-      <c r="C51" s="37">
+      <c r="C51" s="32">
         <v>12382</v>
       </c>
-      <c r="D51" s="37">
+      <c r="D51" s="32">
         <v>1004</v>
       </c>
-      <c r="E51" s="36">
+      <c r="E51" s="31">
         <v>14</v>
       </c>
-      <c r="F51" s="37">
+      <c r="F51" s="32">
         <v>499</v>
       </c>
     </row>
@@ -2506,31 +2577,31 @@
       <c r="A52" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="38">
+      <c r="B52" s="33">
         <v>4579</v>
       </c>
-      <c r="C52" s="38">
+      <c r="C52" s="33">
         <v>3612</v>
       </c>
-      <c r="D52" s="38">
+      <c r="D52" s="33">
         <v>318</v>
       </c>
-      <c r="E52" s="39">
+      <c r="E52" s="34">
         <v>26</v>
       </c>
-      <c r="F52" s="38">
+      <c r="F52" s="33">
         <v>623</v>
       </c>
     </row>
     <row r="53" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="31">
+      <c r="A53" s="35">
         <v>2017</v>
       </c>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
@@ -2591,19 +2662,19 @@
       <c r="A54" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="36">
+      <c r="B54" s="31">
         <v>98175</v>
       </c>
-      <c r="C54" s="36">
+      <c r="C54" s="31">
         <v>56544</v>
       </c>
-      <c r="D54" s="36">
+      <c r="D54" s="31">
         <v>30497</v>
       </c>
-      <c r="E54" s="36">
+      <c r="E54" s="31">
         <v>1680</v>
       </c>
-      <c r="F54" s="36">
+      <c r="F54" s="31">
         <v>9454</v>
       </c>
     </row>
@@ -2611,19 +2682,19 @@
       <c r="A55" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="37">
+      <c r="B55" s="32">
         <v>51591</v>
       </c>
-      <c r="C55" s="37">
+      <c r="C55" s="32">
         <v>15227</v>
       </c>
-      <c r="D55" s="37">
+      <c r="D55" s="32">
         <v>27925</v>
       </c>
-      <c r="E55" s="37">
+      <c r="E55" s="32">
         <v>1518</v>
       </c>
-      <c r="F55" s="37">
+      <c r="F55" s="32">
         <v>6921</v>
       </c>
     </row>
@@ -2631,19 +2702,19 @@
       <c r="A56" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="37">
+      <c r="B56" s="32">
         <v>46584</v>
       </c>
-      <c r="C56" s="37">
+      <c r="C56" s="32">
         <v>41317</v>
       </c>
-      <c r="D56" s="37">
+      <c r="D56" s="32">
         <v>2572</v>
       </c>
-      <c r="E56" s="36">
+      <c r="E56" s="31">
         <v>162</v>
       </c>
-      <c r="F56" s="37">
+      <c r="F56" s="32">
         <v>2533</v>
       </c>
     </row>
@@ -2651,19 +2722,19 @@
       <c r="A57" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="37">
+      <c r="B57" s="32">
         <v>24865</v>
       </c>
-      <c r="C57" s="37">
+      <c r="C57" s="32">
         <v>23174</v>
       </c>
-      <c r="D57" s="37">
+      <c r="D57" s="32">
         <v>1039</v>
       </c>
-      <c r="E57" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="37">
+      <c r="E57" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="32">
         <v>652</v>
       </c>
     </row>
@@ -2671,19 +2742,19 @@
       <c r="A58" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="37">
+      <c r="B58" s="32">
         <v>13890</v>
       </c>
-      <c r="C58" s="37">
+      <c r="C58" s="32">
         <v>11601</v>
       </c>
-      <c r="D58" s="37">
+      <c r="D58" s="32">
         <v>975</v>
       </c>
-      <c r="E58" s="36">
+      <c r="E58" s="31">
         <v>107</v>
       </c>
-      <c r="F58" s="37">
+      <c r="F58" s="32">
         <v>1207</v>
       </c>
     </row>
@@ -2691,31 +2762,31 @@
       <c r="A59" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="38">
+      <c r="B59" s="33">
         <v>7829</v>
       </c>
-      <c r="C59" s="38">
+      <c r="C59" s="33">
         <v>6542</v>
       </c>
-      <c r="D59" s="38">
+      <c r="D59" s="33">
         <v>558</v>
       </c>
-      <c r="E59" s="39">
+      <c r="E59" s="34">
         <v>55</v>
       </c>
-      <c r="F59" s="38">
+      <c r="F59" s="33">
         <v>674</v>
       </c>
     </row>
     <row r="60" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="31">
+      <c r="A60" s="35">
         <v>2018</v>
       </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
@@ -2776,19 +2847,19 @@
       <c r="A61" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="36">
+      <c r="B61" s="31">
         <v>123690</v>
       </c>
-      <c r="C61" s="36">
+      <c r="C61" s="31">
         <v>78014</v>
       </c>
-      <c r="D61" s="36">
+      <c r="D61" s="31">
         <v>26048</v>
       </c>
-      <c r="E61" s="36">
+      <c r="E61" s="31">
         <v>1340</v>
       </c>
-      <c r="F61" s="36">
+      <c r="F61" s="31">
         <v>18288</v>
       </c>
     </row>
@@ -2796,19 +2867,19 @@
       <c r="A62" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="37">
+      <c r="B62" s="32">
         <v>53935</v>
       </c>
-      <c r="C62" s="37">
+      <c r="C62" s="32">
         <v>19492</v>
       </c>
-      <c r="D62" s="37">
+      <c r="D62" s="32">
         <v>24839</v>
       </c>
-      <c r="E62" s="37">
+      <c r="E62" s="32">
         <v>1191</v>
       </c>
-      <c r="F62" s="37">
+      <c r="F62" s="32">
         <v>8413</v>
       </c>
     </row>
@@ -2816,19 +2887,19 @@
       <c r="A63" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="37">
+      <c r="B63" s="32">
         <v>69755</v>
       </c>
-      <c r="C63" s="37">
+      <c r="C63" s="32">
         <v>58522</v>
       </c>
-      <c r="D63" s="37">
+      <c r="D63" s="32">
         <v>1209</v>
       </c>
-      <c r="E63" s="36">
+      <c r="E63" s="31">
         <v>149</v>
       </c>
-      <c r="F63" s="37">
+      <c r="F63" s="32">
         <v>9875</v>
       </c>
     </row>
@@ -2836,19 +2907,19 @@
       <c r="A64" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="37">
+      <c r="B64" s="32">
         <v>29486</v>
       </c>
-      <c r="C64" s="37">
+      <c r="C64" s="32">
         <v>28791</v>
       </c>
-      <c r="D64" s="37">
+      <c r="D64" s="32">
         <v>64</v>
       </c>
-      <c r="E64" s="36">
+      <c r="E64" s="31">
         <v>15</v>
       </c>
-      <c r="F64" s="37">
+      <c r="F64" s="32">
         <v>616</v>
       </c>
     </row>
@@ -2856,19 +2927,19 @@
       <c r="A65" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="37">
+      <c r="B65" s="32">
         <v>20899</v>
       </c>
-      <c r="C65" s="37">
+      <c r="C65" s="32">
         <v>19345</v>
       </c>
-      <c r="D65" s="37">
+      <c r="D65" s="32">
         <v>637</v>
       </c>
-      <c r="E65" s="36">
+      <c r="E65" s="31">
         <v>84</v>
       </c>
-      <c r="F65" s="37">
+      <c r="F65" s="32">
         <v>833</v>
       </c>
     </row>
@@ -2876,31 +2947,31 @@
       <c r="A66" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B66" s="38">
+      <c r="B66" s="33">
         <v>19370</v>
       </c>
-      <c r="C66" s="38">
+      <c r="C66" s="33">
         <v>10386</v>
       </c>
-      <c r="D66" s="38">
+      <c r="D66" s="33">
         <v>508</v>
       </c>
-      <c r="E66" s="39">
+      <c r="E66" s="34">
         <v>50</v>
       </c>
-      <c r="F66" s="38">
+      <c r="F66" s="33">
         <v>8426</v>
       </c>
     </row>
     <row r="67" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="31">
+      <c r="A67" s="35">
         <v>2019</v>
       </c>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
@@ -2961,19 +3032,19 @@
       <c r="A68" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="36">
+      <c r="B68" s="31">
         <v>164888</v>
       </c>
-      <c r="C68" s="36">
+      <c r="C68" s="31">
         <v>125555</v>
       </c>
-      <c r="D68" s="36">
+      <c r="D68" s="31">
         <v>34137</v>
       </c>
-      <c r="E68" s="36">
+      <c r="E68" s="31">
         <v>61</v>
       </c>
-      <c r="F68" s="36">
+      <c r="F68" s="31">
         <v>5135</v>
       </c>
     </row>
@@ -2981,19 +3052,19 @@
       <c r="A69" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="37">
+      <c r="B69" s="32">
         <v>60418</v>
       </c>
-      <c r="C69" s="37">
+      <c r="C69" s="32">
         <v>25287</v>
       </c>
-      <c r="D69" s="37">
+      <c r="D69" s="32">
         <v>30280</v>
       </c>
-      <c r="E69" s="37">
+      <c r="E69" s="32">
         <v>56</v>
       </c>
-      <c r="F69" s="37">
+      <c r="F69" s="32">
         <v>4795</v>
       </c>
     </row>
@@ -3001,19 +3072,19 @@
       <c r="A70" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="37">
+      <c r="B70" s="32">
         <v>104470</v>
       </c>
-      <c r="C70" s="37">
+      <c r="C70" s="32">
         <v>100268</v>
       </c>
-      <c r="D70" s="37">
+      <c r="D70" s="32">
         <v>3857</v>
       </c>
-      <c r="E70" s="36">
+      <c r="E70" s="31">
         <v>5</v>
       </c>
-      <c r="F70" s="37">
+      <c r="F70" s="32">
         <v>340</v>
       </c>
     </row>
@@ -3021,19 +3092,19 @@
       <c r="A71" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="37">
+      <c r="B71" s="32">
         <v>55808</v>
       </c>
-      <c r="C71" s="37">
+      <c r="C71" s="32">
         <v>52587</v>
       </c>
-      <c r="D71" s="37">
+      <c r="D71" s="32">
         <v>3194</v>
       </c>
-      <c r="E71" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="37">
+      <c r="E71" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="32">
         <v>27</v>
       </c>
     </row>
@@ -3041,19 +3112,19 @@
       <c r="A72" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="37">
+      <c r="B72" s="32">
         <v>28182</v>
       </c>
-      <c r="C72" s="37">
+      <c r="C72" s="32">
         <v>27931</v>
       </c>
-      <c r="D72" s="37">
+      <c r="D72" s="32">
         <v>242</v>
       </c>
-      <c r="E72" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="37">
+      <c r="E72" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="32">
         <v>9</v>
       </c>
     </row>
@@ -3061,31 +3132,31 @@
       <c r="A73" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B73" s="38">
+      <c r="B73" s="33">
         <v>20480</v>
       </c>
-      <c r="C73" s="38">
+      <c r="C73" s="33">
         <v>19750</v>
       </c>
-      <c r="D73" s="38">
+      <c r="D73" s="33">
         <v>421</v>
       </c>
-      <c r="E73" s="39">
+      <c r="E73" s="34">
         <v>5</v>
       </c>
-      <c r="F73" s="38">
+      <c r="F73" s="33">
         <v>304</v>
       </c>
     </row>
     <row r="74" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="31">
+      <c r="A74" s="35">
         <v>2020</v>
       </c>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
@@ -3146,19 +3217,19 @@
       <c r="A75" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="36">
+      <c r="B75" s="31">
         <v>25250</v>
       </c>
-      <c r="C75" s="36">
+      <c r="C75" s="31">
         <v>7986</v>
       </c>
-      <c r="D75" s="36">
+      <c r="D75" s="31">
         <v>11681</v>
       </c>
-      <c r="E75" s="36">
+      <c r="E75" s="31">
         <v>698</v>
       </c>
-      <c r="F75" s="36">
+      <c r="F75" s="31">
         <v>4885</v>
       </c>
     </row>
@@ -3166,19 +3237,19 @@
       <c r="A76" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B76" s="37">
+      <c r="B76" s="32">
         <v>21003</v>
       </c>
-      <c r="C76" s="37">
+      <c r="C76" s="32">
         <v>4063</v>
       </c>
-      <c r="D76" s="37">
+      <c r="D76" s="32">
         <v>11508</v>
       </c>
-      <c r="E76" s="37">
+      <c r="E76" s="32">
         <v>698</v>
       </c>
-      <c r="F76" s="37">
+      <c r="F76" s="32">
         <v>4734</v>
       </c>
     </row>
@@ -3186,19 +3257,19 @@
       <c r="A77" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="37">
+      <c r="B77" s="32">
         <v>4247</v>
       </c>
-      <c r="C77" s="37">
+      <c r="C77" s="32">
         <v>3923</v>
       </c>
-      <c r="D77" s="37">
+      <c r="D77" s="32">
         <v>173</v>
       </c>
-      <c r="E77" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="37">
+      <c r="E77" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="32">
         <v>151</v>
       </c>
     </row>
@@ -3206,19 +3277,19 @@
       <c r="A78" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="37">
+      <c r="B78" s="32">
         <v>846</v>
       </c>
-      <c r="C78" s="37">
+      <c r="C78" s="32">
         <v>802</v>
       </c>
-      <c r="D78" s="37">
+      <c r="D78" s="32">
         <v>43</v>
       </c>
-      <c r="E78" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" s="37">
+      <c r="E78" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="32">
         <v>1</v>
       </c>
     </row>
@@ -3226,19 +3297,19 @@
       <c r="A79" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B79" s="37">
+      <c r="B79" s="32">
         <v>366</v>
       </c>
-      <c r="C79" s="37">
+      <c r="C79" s="32">
         <v>291</v>
       </c>
-      <c r="D79" s="37">
+      <c r="D79" s="32">
         <v>75</v>
       </c>
-      <c r="E79" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" s="37" t="s">
+      <c r="E79" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="32" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3246,31 +3317,31 @@
       <c r="A80" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B80" s="38">
+      <c r="B80" s="33">
         <v>3035</v>
       </c>
-      <c r="C80" s="38">
+      <c r="C80" s="33">
         <v>2830</v>
       </c>
-      <c r="D80" s="38">
+      <c r="D80" s="33">
         <v>55</v>
       </c>
-      <c r="E80" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="38">
+      <c r="E80" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="33">
         <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="31">
+      <c r="A81" s="35">
         <v>2021</v>
       </c>
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="31"/>
-      <c r="F81" s="31"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
@@ -3331,19 +3402,19 @@
       <c r="A82" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="36">
+      <c r="B82" s="31">
         <v>75659</v>
       </c>
-      <c r="C82" s="36">
+      <c r="C82" s="31">
         <v>41740</v>
       </c>
-      <c r="D82" s="36">
+      <c r="D82" s="31">
         <v>25645</v>
       </c>
-      <c r="E82" s="36">
+      <c r="E82" s="31">
         <v>451</v>
       </c>
-      <c r="F82" s="36">
+      <c r="F82" s="31">
         <v>7823</v>
       </c>
     </row>
@@ -3351,19 +3422,19 @@
       <c r="A83" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="37">
+      <c r="B83" s="32">
         <v>48240</v>
       </c>
-      <c r="C83" s="37">
+      <c r="C83" s="32">
         <v>18905</v>
       </c>
-      <c r="D83" s="37">
+      <c r="D83" s="32">
         <v>21777</v>
       </c>
-      <c r="E83" s="37">
+      <c r="E83" s="32">
         <v>451</v>
       </c>
-      <c r="F83" s="37">
+      <c r="F83" s="32">
         <v>7107</v>
       </c>
     </row>
@@ -3371,19 +3442,19 @@
       <c r="A84" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="37">
+      <c r="B84" s="32">
         <v>27419</v>
       </c>
-      <c r="C84" s="37">
+      <c r="C84" s="32">
         <v>22835</v>
       </c>
-      <c r="D84" s="37">
+      <c r="D84" s="32">
         <v>3868</v>
       </c>
-      <c r="E84" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" s="37">
+      <c r="E84" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="32">
         <v>716</v>
       </c>
     </row>
@@ -3391,19 +3462,19 @@
       <c r="A85" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="37">
+      <c r="B85" s="32">
         <v>10359</v>
       </c>
-      <c r="C85" s="37">
+      <c r="C85" s="32">
         <v>9494</v>
       </c>
-      <c r="D85" s="37">
+      <c r="D85" s="32">
         <v>663</v>
       </c>
-      <c r="E85" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" s="37">
+      <c r="E85" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="32">
         <v>202</v>
       </c>
     </row>
@@ -3411,19 +3482,19 @@
       <c r="A86" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="37">
+      <c r="B86" s="32">
         <v>7126</v>
       </c>
-      <c r="C86" s="37">
+      <c r="C86" s="32">
         <v>5286</v>
       </c>
-      <c r="D86" s="37">
+      <c r="D86" s="32">
         <v>1806</v>
       </c>
-      <c r="E86" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" s="37">
+      <c r="E86" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="32">
         <v>34</v>
       </c>
     </row>
@@ -3431,24 +3502,50 @@
       <c r="A87" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B87" s="38">
+      <c r="B87" s="33">
         <v>9934</v>
       </c>
-      <c r="C87" s="38">
+      <c r="C87" s="33">
         <v>8055</v>
       </c>
-      <c r="D87" s="38">
+      <c r="D87" s="33">
         <v>1399</v>
       </c>
-      <c r="E87" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" s="38">
+      <c r="E87" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="33">
         <v>480</v>
       </c>
     </row>
+    <row r="88" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="40"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BI2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="AP2:AT2"/>
+    <mergeCell ref="AU2:AY2"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="V2:Z2"/>
     <mergeCell ref="AA2:AE2"/>
@@ -3458,21 +3555,6 @@
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="L2:P2"/>
-    <mergeCell ref="AZ2:BD2"/>
-    <mergeCell ref="BE2:BI2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="AP2:AT2"/>
-    <mergeCell ref="AU2:AY2"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A67:F67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
